--- a/assets/tushare_index_basic.xlsx
+++ b/assets/tushare_index_basic.xlsx
@@ -1,33 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\quant\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFB073A-C7D9-4D26-9ED3-D29FAD8D93D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752682E2-F274-44B8-8E66-F406CE538852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17712" yWindow="3420" windowWidth="26496" windowHeight="20592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22860" yWindow="9564" windowWidth="21192" windowHeight="14268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tushare_index_basic_20240225180" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentManualCount="32"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ts_code</t>
   </si>
   <si>
-    <t>symbol</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -44,14 +41,6 @@
   </si>
   <si>
     <t>北证50</t>
-  </si>
-  <si>
-    <t>000001</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>000688</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>000001.SH</t>
@@ -664,11 +653,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,83 +1012,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
-        <v>399001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1">
-        <v>399006</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1">
-        <v>899050</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
